--- a/model-excel-import/programs.xlsx
+++ b/model-excel-import/programs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escuela Ingenieria\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ei-sistema\model-excel-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FCE92-44C6-4443-BCA5-559531B54252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592986E2-F297-4F8C-A485-F57915C979A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{87BA0F62-6263-4E3A-A9AA-29F1ED5A96B1}"/>
+    <workbookView xWindow="5430" yWindow="5295" windowWidth="15375" windowHeight="8415" xr2:uid="{87BA0F62-6263-4E3A-A9AA-29F1ED5A96B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>codigo</t>
   </si>
@@ -118,18 +118,12 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>fecha_final  (YYYY-MM-DD)</t>
-  </si>
-  <si>
     <t>Virtual</t>
   </si>
   <si>
     <t>Presencial</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Maestria</t>
   </si>
   <si>
@@ -137,6 +131,30 @@
   </si>
   <si>
     <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>cantidad_modulos</t>
+  </si>
+  <si>
+    <t>fecha_final</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -198,8 +216,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B953C6-A412-4F88-A419-700CE6B24310}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +546,7 @@
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,18 +569,21 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>11</v>
+      <c r="J1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -574,24 +595,27 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45402</v>
-      </c>
-      <c r="I2" s="1">
-        <v>45342</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -603,16 +627,19 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45402</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45828</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
